--- a/excel/Ejemplousuarios.xlsx
+++ b/excel/Ejemplousuarios.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Excelprueba\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52AAC54D-7931-4565-BB29-BBF30CF66F31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="9315" windowHeight="7245"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>ID</t>
   </si>
@@ -37,14 +43,17 @@
   </si>
   <si>
     <t>Pepa</t>
+  </si>
+  <si>
+    <t>nr folio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="167" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -75,12 +84,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -90,6 +100,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -138,7 +151,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -171,9 +184,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -206,6 +236,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -381,80 +428,95 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>44321</v>
       </c>
       <c r="D2">
         <v>78</v>
       </c>
+      <c r="E2">
+        <v>6677</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>44322</v>
       </c>
       <c r="D3">
         <v>45</v>
       </c>
+      <c r="E3">
+        <v>6688</v>
+      </c>
+      <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>44323</v>
       </c>
       <c r="D4">
         <v>12</v>
+      </c>
+      <c r="E4">
+        <v>6699</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -466,7 +528,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
